--- a/RODEIO_BONITO.xlsx
+++ b/RODEIO_BONITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B385A8-909C-4774-B08D-8084EF880E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8CE54B-F9C3-4F5B-A331-352BD43E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2926D546-3D7C-4DBB-9E7E-98951D89C68B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5F1B56E1-2F30-47F1-B55F-F082B5B520D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,10 +1165,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661577B1-2C53-43A2-9FCC-0833CCA54AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92FCF31-BFE3-418F-89D2-E738A6CA894A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D12FDB-5A6B-449A-A8A8-F94AF73DA061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D2456-3FA2-4144-8570-B0D1DE551F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46493452-98C6-46DF-832E-CC93A202CB6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0CDC30-2DBC-4EFA-BC5E-CFE15D08F2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30AAD08-ABE6-F8C7-830A-70CD46A5C6D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FF6833-A249-AED1-C70C-FB93FE9951BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D9BC50-9C0E-7226-2016-9A293C76E43F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585918F7-2A1F-A796-71B7-0EB73368C0E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2068DB-9089-63DB-04E5-ECAD0910456A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DBB247-03C3-4FCB-3C18-44AF3C71739C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5B6D81-44F6-9276-24D6-16ED14CE5A82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA7A6BA-904A-3DCD-048F-7F0AC04FD3F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A9097A-725A-CECD-D9FF-83080678C944}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71AA20D-C622-CE71-E7DE-F48DD0D38F40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF98FA9-7D2E-49BC-A383-5A3280CAD0DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7354DA7-DF27-458D-A6C4-C952EEE4F1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F18A890-BAE2-4F5E-896A-35B5B52DF9A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509DBCF2-51BC-4AD3-8051-D622F954EC4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA6BF0A-B1FD-45A1-924F-7A372837A369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB3606C-54F1-4D95-9F01-48596DCE61A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E707CD-4202-42CC-B80F-7CD47538BFCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363877EF-E883-4D10-B2EE-4F6BA42A7B6B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RODEIO_BONITO.xlsx
+++ b/RODEIO_BONITO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8CE54B-F9C3-4F5B-A331-352BD43E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87507431-95E9-4643-8F22-6F899F60F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="5" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1135,7 +1135,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5F1B56E1-2F30-47F1-B55F-F082B5B520D4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E93E9924-7A95-470B-9F5A-693EB0DB827D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,10 +1165,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92FCF31-BFE3-418F-89D2-E738A6CA894A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9CCE9-233E-4628-B7D7-D72068A0C932}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D2456-3FA2-4144-8570-B0D1DE551F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D893D6-684A-49D8-89A8-4DE1E7D0AC86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0CDC30-2DBC-4EFA-BC5E-CFE15D08F2EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B061A4A3-BC8C-4F93-95D9-D99CE42D3C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FF6833-A249-AED1-C70C-FB93FE9951BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB28565-FB99-769F-2F18-A8D1A84C72DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585918F7-2A1F-A796-71B7-0EB73368C0E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD503E3-4459-0B6E-4BDF-694AAECABDD8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DBB247-03C3-4FCB-3C18-44AF3C71739C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C5915D-5875-3955-6F6D-F7AD342E41D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA7A6BA-904A-3DCD-048F-7F0AC04FD3F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871E0D39-51CF-2786-D312-ED43D1F9DFEF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71AA20D-C622-CE71-E7DE-F48DD0D38F40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC099BD-C205-C07D-5998-B4A476EED21E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7354DA7-DF27-458D-A6C4-C952EEE4F1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD073DA-532E-40D2-BC7C-49D92825C66F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509DBCF2-51BC-4AD3-8051-D622F954EC4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894990D2-23FA-4E7F-AC38-AE1748CEA32F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB3606C-54F1-4D95-9F01-48596DCE61A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44443219-9C9E-4EA2-89BE-621D5114DACB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363877EF-E883-4D10-B2EE-4F6BA42A7B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C13127-9053-43A1-8F58-73AE8F8517A9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RODEIO_BONITO.xlsx
+++ b/RODEIO_BONITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87507431-95E9-4643-8F22-6F899F60F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B3C8DE-2D7E-49B0-B24D-05E5B9CF36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E93E9924-7A95-470B-9F5A-693EB0DB827D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{53BC5137-557C-4B7F-92C7-449213A166CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,10 +1165,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9CCE9-233E-4628-B7D7-D72068A0C932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345B5D33-9F33-490D-8549-C362363DD808}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D893D6-684A-49D8-89A8-4DE1E7D0AC86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2CA84F-C8CB-4A41-B947-8FED92845D25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B061A4A3-BC8C-4F93-95D9-D99CE42D3C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B087D450-430C-47C3-B891-C4D673479BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB28565-FB99-769F-2F18-A8D1A84C72DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825A6A57-7962-519E-BE08-94D8E10D2EED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD503E3-4459-0B6E-4BDF-694AAECABDD8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABF3F66-0EDF-D3F4-9055-FAEEBADA4571}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C5915D-5875-3955-6F6D-F7AD342E41D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487C2AFA-0FD4-578E-630B-5B9C755C0235}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871E0D39-51CF-2786-D312-ED43D1F9DFEF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FE9D1B-626B-2E7E-0246-C561A1B92CBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC099BD-C205-C07D-5998-B4A476EED21E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82219955-D000-3E24-1044-55F0E753706F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD073DA-532E-40D2-BC7C-49D92825C66F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B59D276-BC7C-466A-AB76-C1ACBD2A6E7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894990D2-23FA-4E7F-AC38-AE1748CEA32F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF2E2AE-EA0B-4E5E-9005-E64EB9B61C22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,50 +1524,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44443219-9C9E-4EA2-89BE-621D5114DACB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1855,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C13127-9053-43A1-8F58-73AE8F8517A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895464F0-9CAE-4DEC-A80D-138E3868205B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RODEIO_BONITO.xlsx
+++ b/RODEIO_BONITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B3C8DE-2D7E-49B0-B24D-05E5B9CF36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5437981-2A08-45BC-8773-C5A08DF8347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,14 +888,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -923,6 +915,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1014,21 +1014,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1062,6 +1047,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1069,73 +1069,73 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{53BC5137-557C-4B7F-92C7-449213A166CA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6637BC4D-77E6-4770-897F-CB63501CE5A3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,7 +1165,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345B5D33-9F33-490D-8549-C362363DD808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69E0A1C-F347-46B3-94F2-C40D0BBD41BA}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2CA84F-C8CB-4A41-B947-8FED92845D25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5024323-6190-453F-834C-590B02F6D58A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B087D450-430C-47C3-B891-C4D673479BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F252F8-A149-43E0-A653-4F78D8DFD035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825A6A57-7962-519E-BE08-94D8E10D2EED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AFE71F-A161-F025-2227-9E74F7173324}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABF3F66-0EDF-D3F4-9055-FAEEBADA4571}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EF48DC-950A-41E9-5111-652F4F715A13}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487C2AFA-0FD4-578E-630B-5B9C755C0235}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C24444-BFCC-3573-1F4D-1C0062BD3DDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FE9D1B-626B-2E7E-0246-C561A1B92CBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B896213-1FBD-A59D-C7D0-460B94A8D41F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82219955-D000-3E24-1044-55F0E753706F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE212E2-4C77-CB10-C354-ECCBE203EF29}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B59D276-BC7C-466A-AB76-C1ACBD2A6E7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C10B21-3341-4368-99DC-564675F60185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF2E2AE-EA0B-4E5E-9005-E64EB9B61C22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B335332F-7B8D-4CC0-918F-718FB84795F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895464F0-9CAE-4DEC-A80D-138E3868205B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536CAE15-7C2A-4FA8-A800-ADEE255549E9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
